--- a/Three node model/avail.xlsx
+++ b/Three node model/avail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Three node model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B4D108-354A-4C1B-BFEA-2DEDD52AC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275294D5-0867-492B-85CA-100ADCF9B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>wind</t>
   </si>
@@ -40,16 +40,10 @@
     <t>solar</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>north</t>
   </si>
   <si>
     <t>south</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
   <si>
     <t>east</t>
@@ -81,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,33 +99,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -165,29 +135,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,310 +452,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.43</v>
+      </c>
+      <c r="C3">
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" ca="1" si="0">C3*0.5+B3*0.5+RANDBETWEEN(-1,1)*0.05</f>
+        <v>0.32</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f ca="1">MAX(0,F3*0.5+E3*0.5+RANDBETWEEN(-1,1)*0.05)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="C4">
-        <v>0.31</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D12" ca="1" si="0">C4*0.5+B4*0.5+RANDBETWEEN(-1,1)*0.05</f>
-        <v>0.37</v>
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f ca="1">MAX(0,F4*0.5+E4*0.5+RANDBETWEEN(-1,1)*0.05)</f>
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G12" ca="1" si="1">MAX(0,F4*0.5+E4*0.5+RANDBETWEEN(-1,1)*0.05)</f>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <v>0.21</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21499999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5">
         <v>0.24</v>
       </c>
-      <c r="C5">
-        <v>0.16</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0.08</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G13" ca="1" si="1">MAX(0,F5*0.5+E5*0.5+RANDBETWEEN(-1,1)*0.05)</f>
-        <v>0.14000000000000001</v>
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="C6">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11499999999999998</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="F6">
-        <v>0.24</v>
-      </c>
-      <c r="G6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="C7">
-        <v>0.13</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14500000000000002</v>
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="3">
+        <f ca="1">C7*0.5+B7*0.5+RANDBETWEEN(-1,1)*0.05</f>
+        <v>0.09</v>
       </c>
       <c r="E7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>0.11</v>
+      </c>
+      <c r="C8">
         <v>0.08</v>
       </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="6">
-        <f ca="1">C8*0.5+B8*0.5+RANDBETWEEN(-1,1)*0.05</f>
-        <v>0.09</v>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14500000000000002</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="F9">
-        <v>0.02</v>
-      </c>
-      <c r="G9" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.02</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="C10">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23499999999999999</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="E10">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F10">
-        <v>0.35</v>
-      </c>
-      <c r="G10" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>0.41</v>
-      </c>
-      <c r="G11" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32499999999999996</v>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19500000000000001</v>
+        <v>0.13</v>
+      </c>
+      <c r="D12" s="3">
+        <f ca="1">C12*0.5+B12*0.5+RANDBETWEEN(-1,1)*0.05</f>
+        <v>0.105</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0.18</v>
-      </c>
-      <c r="C13">
-        <v>0.13</v>
-      </c>
-      <c r="D13" s="6">
-        <f ca="1">C13*0.5+B13*0.5+RANDBETWEEN(-1,1)*0.05</f>
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>